--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.42827423479268</v>
+        <v>2.4307445</v>
       </c>
       <c r="H2">
-        <v>2.42827423479268</v>
+        <v>4.861489000000001</v>
       </c>
       <c r="I2">
-        <v>0.03999856195892963</v>
+        <v>0.03902109471588516</v>
       </c>
       <c r="J2">
-        <v>0.03999856195892963</v>
+        <v>0.03227954420768778</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N2">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O2">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P2">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q2">
-        <v>8.416559388251297</v>
+        <v>9.335947568476502</v>
       </c>
       <c r="R2">
-        <v>8.416559388251297</v>
+        <v>37.34379027390601</v>
       </c>
       <c r="S2">
-        <v>0.0009408201103923198</v>
+        <v>0.0009897191773699222</v>
       </c>
       <c r="T2">
-        <v>0.0009408201103923198</v>
+        <v>0.0005612997142755492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.42827423479268</v>
+        <v>2.4307445</v>
       </c>
       <c r="H3">
-        <v>2.42827423479268</v>
+        <v>4.861489000000001</v>
       </c>
       <c r="I3">
-        <v>0.03999856195892963</v>
+        <v>0.03902109471588516</v>
       </c>
       <c r="J3">
-        <v>0.03999856195892963</v>
+        <v>0.03227954420768778</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N3">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O3">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P3">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q3">
-        <v>47.06198895162307</v>
+        <v>50.243887457098</v>
       </c>
       <c r="R3">
-        <v>47.06198895162307</v>
+        <v>301.463324742588</v>
       </c>
       <c r="S3">
-        <v>0.005260684752317482</v>
+        <v>0.005326437257404265</v>
       </c>
       <c r="T3">
-        <v>0.005260684752317482</v>
+        <v>0.004531175780536884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.42827423479268</v>
+        <v>2.4307445</v>
       </c>
       <c r="H4">
-        <v>2.42827423479268</v>
+        <v>4.861489000000001</v>
       </c>
       <c r="I4">
-        <v>0.03999856195892963</v>
+        <v>0.03902109471588516</v>
       </c>
       <c r="J4">
-        <v>0.03999856195892963</v>
+        <v>0.03227954420768778</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N4">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O4">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P4">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q4">
-        <v>136.7574882487673</v>
+        <v>138.9902897477777</v>
       </c>
       <c r="R4">
-        <v>136.7574882487673</v>
+        <v>833.9417384866661</v>
       </c>
       <c r="S4">
-        <v>0.01528702991994382</v>
+        <v>0.01473458952319564</v>
       </c>
       <c r="T4">
-        <v>0.01528702991994382</v>
+        <v>0.01253464782502539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.42827423479268</v>
+        <v>2.4307445</v>
       </c>
       <c r="H5">
-        <v>2.42827423479268</v>
+        <v>4.861489000000001</v>
       </c>
       <c r="I5">
-        <v>0.03999856195892963</v>
+        <v>0.03902109471588516</v>
       </c>
       <c r="J5">
-        <v>0.03999856195892963</v>
+        <v>0.03227954420768778</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N5">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O5">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P5">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q5">
-        <v>132.3196249163158</v>
+        <v>135.0803602459518</v>
       </c>
       <c r="R5">
-        <v>132.3196249163158</v>
+        <v>810.482161475711</v>
       </c>
       <c r="S5">
-        <v>0.0147909565391546</v>
+        <v>0.01432009145733375</v>
       </c>
       <c r="T5">
-        <v>0.0147909565391546</v>
+        <v>0.0121820362187398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.42827423479268</v>
+        <v>2.4307445</v>
       </c>
       <c r="H6">
-        <v>2.42827423479268</v>
+        <v>4.861489000000001</v>
       </c>
       <c r="I6">
-        <v>0.03999856195892963</v>
+        <v>0.03902109471588516</v>
       </c>
       <c r="J6">
-        <v>0.03999856195892963</v>
+        <v>0.03227954420768778</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N6">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O6">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P6">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q6">
-        <v>12.1884999187449</v>
+        <v>13.31327837429467</v>
       </c>
       <c r="R6">
-        <v>12.1884999187449</v>
+        <v>79.87967024576801</v>
       </c>
       <c r="S6">
-        <v>0.001362455287261139</v>
+        <v>0.001411362566473143</v>
       </c>
       <c r="T6">
-        <v>0.001362455287261139</v>
+        <v>0.001200639671455743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.42827423479268</v>
+        <v>2.4307445</v>
       </c>
       <c r="H7">
-        <v>2.42827423479268</v>
+        <v>4.861489000000001</v>
       </c>
       <c r="I7">
-        <v>0.03999856195892963</v>
+        <v>0.03902109471588516</v>
       </c>
       <c r="J7">
-        <v>0.03999856195892963</v>
+        <v>0.03227954420768778</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N7">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O7">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P7">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q7">
-        <v>21.08223753751675</v>
+        <v>21.11932791331775</v>
       </c>
       <c r="R7">
-        <v>21.08223753751675</v>
+        <v>84.47731165327102</v>
       </c>
       <c r="S7">
-        <v>0.002356615349860276</v>
+        <v>0.002238894734108435</v>
       </c>
       <c r="T7">
-        <v>0.002356615349860276</v>
+        <v>0.00126974499765441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.1093155437156</v>
+        <v>22.498612</v>
       </c>
       <c r="H8">
-        <v>21.1093155437156</v>
+        <v>67.495836</v>
       </c>
       <c r="I8">
-        <v>0.3477128956804142</v>
+        <v>0.3611734881341704</v>
       </c>
       <c r="J8">
-        <v>0.3477128956804142</v>
+        <v>0.4481620388314865</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N8">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O8">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P8">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q8">
-        <v>73.16628631699311</v>
+        <v>86.41215150152399</v>
       </c>
       <c r="R8">
-        <v>73.16628631699311</v>
+        <v>518.472909009144</v>
       </c>
       <c r="S8">
-        <v>0.008178676154277288</v>
+        <v>0.009160694495289428</v>
       </c>
       <c r="T8">
-        <v>0.008178676154277288</v>
+        <v>0.007792960852444451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.1093155437156</v>
+        <v>22.498612</v>
       </c>
       <c r="H9">
-        <v>21.1093155437156</v>
+        <v>67.495836</v>
       </c>
       <c r="I9">
-        <v>0.3477128956804142</v>
+        <v>0.3611734881341704</v>
       </c>
       <c r="J9">
-        <v>0.3477128956804142</v>
+        <v>0.4481620388314865</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N9">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O9">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P9">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q9">
-        <v>409.1162195193685</v>
+        <v>465.049999812368</v>
       </c>
       <c r="R9">
-        <v>409.1162195193685</v>
+        <v>4185.449998311312</v>
       </c>
       <c r="S9">
-        <v>0.04573184231893981</v>
+        <v>0.04930071638408835</v>
       </c>
       <c r="T9">
-        <v>0.04573184231893981</v>
+        <v>0.06290984045634773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.1093155437156</v>
+        <v>22.498612</v>
       </c>
       <c r="H10">
-        <v>21.1093155437156</v>
+        <v>67.495836</v>
       </c>
       <c r="I10">
-        <v>0.3477128956804142</v>
+        <v>0.3611734881341704</v>
       </c>
       <c r="J10">
-        <v>0.3477128956804142</v>
+        <v>0.4481620388314865</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N10">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O10">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P10">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q10">
-        <v>1188.851296548752</v>
+        <v>1286.473588977709</v>
       </c>
       <c r="R10">
-        <v>1188.851296548752</v>
+        <v>11578.26230079938</v>
       </c>
       <c r="S10">
-        <v>0.1328922136069474</v>
+        <v>0.1363811838972148</v>
       </c>
       <c r="T10">
-        <v>0.1328922136069474</v>
+        <v>0.1740282728019483</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.1093155437156</v>
+        <v>22.498612</v>
       </c>
       <c r="H11">
-        <v>21.1093155437156</v>
+        <v>67.495836</v>
       </c>
       <c r="I11">
-        <v>0.3477128956804142</v>
+        <v>0.3611734881341704</v>
       </c>
       <c r="J11">
-        <v>0.3477128956804142</v>
+        <v>0.4481620388314865</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N11">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O11">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P11">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q11">
-        <v>1150.272351847063</v>
+        <v>1250.283859119662</v>
       </c>
       <c r="R11">
-        <v>1150.272351847063</v>
+        <v>11252.55473207696</v>
       </c>
       <c r="S11">
-        <v>0.1285797807779545</v>
+        <v>0.1325446510330751</v>
       </c>
       <c r="T11">
-        <v>0.1285797807779545</v>
+        <v>0.1691326913968378</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.1093155437156</v>
+        <v>22.498612</v>
       </c>
       <c r="H12">
-        <v>21.1093155437156</v>
+        <v>67.495836</v>
       </c>
       <c r="I12">
-        <v>0.3477128956804142</v>
+        <v>0.3611734881341704</v>
       </c>
       <c r="J12">
-        <v>0.3477128956804142</v>
+        <v>0.4481620388314865</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N12">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O12">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P12">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q12">
-        <v>105.9562742555331</v>
+        <v>123.2257378721813</v>
       </c>
       <c r="R12">
-        <v>105.9562742555331</v>
+        <v>1109.031640849632</v>
       </c>
       <c r="S12">
-        <v>0.0118440076334519</v>
+        <v>0.01306336341577794</v>
       </c>
       <c r="T12">
-        <v>0.0118440076334519</v>
+        <v>0.01666941514414014</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.1093155437156</v>
+        <v>22.498612</v>
       </c>
       <c r="H13">
-        <v>21.1093155437156</v>
+        <v>67.495836</v>
       </c>
       <c r="I13">
-        <v>0.3477128956804142</v>
+        <v>0.3611734881341704</v>
       </c>
       <c r="J13">
-        <v>0.3477128956804142</v>
+        <v>0.4481620388314865</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N13">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O13">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P13">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q13">
-        <v>183.2707353109162</v>
+        <v>195.477379223734</v>
       </c>
       <c r="R13">
-        <v>183.2707353109162</v>
+        <v>1172.864275342404</v>
       </c>
       <c r="S13">
-        <v>0.02048637518884334</v>
+        <v>0.0207228789087248</v>
       </c>
       <c r="T13">
-        <v>0.02048637518884334</v>
+        <v>0.01762885817976805</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0134129738146981</v>
+        <v>0.016137</v>
       </c>
       <c r="H14">
-        <v>0.0134129738146981</v>
+        <v>0.048411</v>
       </c>
       <c r="I14">
-        <v>0.0002209386635552338</v>
+        <v>0.000259049606172199</v>
       </c>
       <c r="J14">
-        <v>0.0002209386635552338</v>
+        <v>0.0003214416436277801</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N14">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O14">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P14">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q14">
-        <v>0.04649025594677303</v>
+        <v>0.06197861844900001</v>
       </c>
       <c r="R14">
-        <v>0.04649025594677303</v>
+        <v>0.371871710694</v>
       </c>
       <c r="S14">
-        <v>5.196775275306151E-06</v>
+        <v>6.570455416115694E-06</v>
       </c>
       <c r="T14">
-        <v>5.196775275306151E-06</v>
+        <v>5.589456330723696E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0134129738146981</v>
+        <v>0.016137</v>
       </c>
       <c r="H15">
-        <v>0.0134129738146981</v>
+        <v>0.048411</v>
       </c>
       <c r="I15">
-        <v>0.0002209386635552338</v>
+        <v>0.000259049606172199</v>
       </c>
       <c r="J15">
-        <v>0.0002209386635552338</v>
+        <v>0.0003214416436277801</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N15">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O15">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P15">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q15">
-        <v>0.2599546692178387</v>
+        <v>0.333554436468</v>
       </c>
       <c r="R15">
-        <v>0.2599546692178387</v>
+        <v>3.001989928212</v>
       </c>
       <c r="S15">
-        <v>2.905826113838427E-05</v>
+        <v>3.536065515019478E-05</v>
       </c>
       <c r="T15">
-        <v>2.905826113838427E-05</v>
+        <v>4.512172108413104E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0134129738146981</v>
+        <v>0.016137</v>
       </c>
       <c r="H16">
-        <v>0.0134129738146981</v>
+        <v>0.048411</v>
       </c>
       <c r="I16">
-        <v>0.0002209386635552338</v>
+        <v>0.000259049606172199</v>
       </c>
       <c r="J16">
-        <v>0.0002209386635552338</v>
+        <v>0.0003214416436277801</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N16">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O16">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P16">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q16">
-        <v>0.755402574619505</v>
+        <v>0.922715779326</v>
       </c>
       <c r="R16">
-        <v>0.755402574619505</v>
+        <v>8.304442013934</v>
       </c>
       <c r="S16">
-        <v>8.444043472635992E-05</v>
+        <v>9.781861941302676E-05</v>
       </c>
       <c r="T16">
-        <v>8.444043472635992E-05</v>
+        <v>0.0001248207773086197</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0134129738146981</v>
+        <v>0.016137</v>
       </c>
       <c r="H17">
-        <v>0.0134129738146981</v>
+        <v>0.048411</v>
       </c>
       <c r="I17">
-        <v>0.0002209386635552338</v>
+        <v>0.000259049606172199</v>
       </c>
       <c r="J17">
-        <v>0.0002209386635552338</v>
+        <v>0.0003214416436277801</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N17">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O17">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P17">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q17">
-        <v>0.7308893034994236</v>
+        <v>0.896758903821</v>
       </c>
       <c r="R17">
-        <v>0.7308893034994236</v>
+        <v>8.070830134388999</v>
       </c>
       <c r="S17">
-        <v>8.170029147097399E-05</v>
+        <v>9.506688829163032E-05</v>
       </c>
       <c r="T17">
-        <v>8.170029147097399E-05</v>
+        <v>0.0001213094497149767</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0134129738146981</v>
+        <v>0.016137</v>
       </c>
       <c r="H18">
-        <v>0.0134129738146981</v>
+        <v>0.048411</v>
       </c>
       <c r="I18">
-        <v>0.0002209386635552338</v>
+        <v>0.000259049606172199</v>
       </c>
       <c r="J18">
-        <v>0.0002209386635552338</v>
+        <v>0.0003214416436277801</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N18">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O18">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P18">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q18">
-        <v>0.06732519247956074</v>
+        <v>0.088382951448</v>
       </c>
       <c r="R18">
-        <v>0.06732519247956074</v>
+        <v>0.795446563032</v>
       </c>
       <c r="S18">
-        <v>7.525746816356132E-06</v>
+        <v>9.369622243381444E-06</v>
       </c>
       <c r="T18">
-        <v>7.525746816356132E-06</v>
+        <v>1.195604209632974E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0134129738146981</v>
+        <v>0.016137</v>
       </c>
       <c r="H19">
-        <v>0.0134129738146981</v>
+        <v>0.048411</v>
       </c>
       <c r="I19">
-        <v>0.0002209386635552338</v>
+        <v>0.000259049606172199</v>
       </c>
       <c r="J19">
-        <v>0.0002209386635552338</v>
+        <v>0.0003214416436277801</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N19">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O19">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P19">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q19">
-        <v>0.1164512211982928</v>
+        <v>0.1402050254715</v>
       </c>
       <c r="R19">
-        <v>0.1164512211982928</v>
+        <v>0.841230152829</v>
       </c>
       <c r="S19">
-        <v>1.301715412785336E-05</v>
+        <v>1.486336565785002E-05</v>
       </c>
       <c r="T19">
-        <v>1.301715412785336E-05</v>
+        <v>1.264419709299921E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.080012733355824</v>
+        <v>0.09407333333333334</v>
       </c>
       <c r="H20">
-        <v>0.080012733355824</v>
+        <v>0.28222</v>
       </c>
       <c r="I20">
-        <v>0.001317970691604972</v>
+        <v>0.001510172891572535</v>
       </c>
       <c r="J20">
-        <v>0.001317970691604972</v>
+        <v>0.001873897681614346</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N20">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O20">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P20">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q20">
-        <v>0.2773294352246439</v>
+        <v>0.36131469498</v>
       </c>
       <c r="R20">
-        <v>0.2773294352246439</v>
+        <v>2.16788816988</v>
       </c>
       <c r="S20">
-        <v>3.100044778716873E-05</v>
+        <v>3.830356587420567E-05</v>
       </c>
       <c r="T20">
-        <v>3.100044778716873E-05</v>
+        <v>3.258466806421767E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.080012733355824</v>
+        <v>0.09407333333333334</v>
       </c>
       <c r="H21">
-        <v>0.080012733355824</v>
+        <v>0.28222</v>
       </c>
       <c r="I21">
-        <v>0.001317970691604972</v>
+        <v>0.001510172891572535</v>
       </c>
       <c r="J21">
-        <v>0.001317970691604972</v>
+        <v>0.001873897681614346</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N21">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O21">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P21">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q21">
-        <v>1.55071380292533</v>
+        <v>1.944511228026667</v>
       </c>
       <c r="R21">
-        <v>1.55071380292533</v>
+        <v>17.50060105224</v>
       </c>
       <c r="S21">
-        <v>0.0001733419398539082</v>
+        <v>0.0002061408377535677</v>
       </c>
       <c r="T21">
-        <v>0.0001733419398539082</v>
+        <v>0.0002630445998711752</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.080012733355824</v>
+        <v>0.09407333333333334</v>
       </c>
       <c r="H22">
-        <v>0.080012733355824</v>
+        <v>0.28222</v>
       </c>
       <c r="I22">
-        <v>0.001317970691604972</v>
+        <v>0.001510172891572535</v>
       </c>
       <c r="J22">
-        <v>0.001317970691604972</v>
+        <v>0.001873897681614346</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N22">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O22">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P22">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q22">
-        <v>4.506221037507768</v>
+        <v>5.379125554964444</v>
       </c>
       <c r="R22">
-        <v>4.506221037507768</v>
+        <v>48.41212999468</v>
       </c>
       <c r="S22">
-        <v>0.0005037145439594051</v>
+        <v>0.0005702499591155813</v>
       </c>
       <c r="T22">
-        <v>0.0005037145439594051</v>
+        <v>0.0007276635428319733</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.080012733355824</v>
+        <v>0.09407333333333334</v>
       </c>
       <c r="H23">
-        <v>0.080012733355824</v>
+        <v>0.28222</v>
       </c>
       <c r="I23">
-        <v>0.001317970691604972</v>
+        <v>0.001510172891572535</v>
       </c>
       <c r="J23">
-        <v>0.001317970691604972</v>
+        <v>0.001873897681614346</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N23">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O23">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P23">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q23">
-        <v>4.359991435265437</v>
+        <v>5.227805619308889</v>
       </c>
       <c r="R23">
-        <v>4.359991435265437</v>
+        <v>47.05025057378</v>
       </c>
       <c r="S23">
-        <v>0.0004873687018904598</v>
+        <v>0.00055420828352366</v>
       </c>
       <c r="T23">
-        <v>0.0004873687018904598</v>
+        <v>0.0007071936728958447</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.080012733355824</v>
+        <v>0.09407333333333334</v>
       </c>
       <c r="H24">
-        <v>0.080012733355824</v>
+        <v>0.28222</v>
       </c>
       <c r="I24">
-        <v>0.001317970691604972</v>
+        <v>0.001510172891572535</v>
       </c>
       <c r="J24">
-        <v>0.001317970691604972</v>
+        <v>0.001873897681614346</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N24">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O24">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P24">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q24">
-        <v>0.4016165802168062</v>
+        <v>0.5152431587377777</v>
       </c>
       <c r="R24">
-        <v>0.4016165802168062</v>
+        <v>4.63718842864</v>
       </c>
       <c r="S24">
-        <v>4.489351739885566E-05</v>
+        <v>5.46217758263021E-05</v>
       </c>
       <c r="T24">
-        <v>4.489351739885566E-05</v>
+        <v>6.969974180302367E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.080012733355824</v>
+        <v>0.09407333333333334</v>
       </c>
       <c r="H25">
-        <v>0.080012733355824</v>
+        <v>0.28222</v>
       </c>
       <c r="I25">
-        <v>0.001317970691604972</v>
+        <v>0.001510172891572535</v>
       </c>
       <c r="J25">
-        <v>0.001317970691604972</v>
+        <v>0.001873897681614346</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N25">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O25">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P25">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q25">
-        <v>0.6946692537704624</v>
+        <v>0.8173485837633334</v>
       </c>
       <c r="R25">
-        <v>0.6946692537704624</v>
+        <v>4.904091502580001</v>
       </c>
       <c r="S25">
-        <v>7.765154071517414E-05</v>
+        <v>8.664846947921817E-05</v>
       </c>
       <c r="T25">
-        <v>7.765154071517414E-05</v>
+        <v>7.371145614811171E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.23557913769274</v>
+        <v>3.410876</v>
       </c>
       <c r="H26">
-        <v>3.23557913769274</v>
+        <v>10.232628</v>
       </c>
       <c r="I26">
-        <v>0.05329649788219764</v>
+        <v>0.05475528812680208</v>
       </c>
       <c r="J26">
-        <v>0.05329649788219764</v>
+        <v>0.06794308654957848</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N26">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O26">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P26">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q26">
-        <v>11.21473167140156</v>
+        <v>13.100414090652</v>
       </c>
       <c r="R26">
-        <v>11.21473167140156</v>
+        <v>78.60248454391198</v>
       </c>
       <c r="S26">
-        <v>0.001253605493930988</v>
+        <v>0.001388796473191983</v>
       </c>
       <c r="T26">
-        <v>0.001253605493930988</v>
+        <v>0.001181442799251008</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.23557913769274</v>
+        <v>3.410876</v>
       </c>
       <c r="H27">
-        <v>3.23557913769274</v>
+        <v>10.232628</v>
       </c>
       <c r="I27">
-        <v>0.05329649788219764</v>
+        <v>0.05475528812680208</v>
       </c>
       <c r="J27">
-        <v>0.05329649788219764</v>
+        <v>0.06794308654957848</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N27">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O27">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P27">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q27">
-        <v>62.70823428771359</v>
+        <v>70.503366303664</v>
       </c>
       <c r="R27">
-        <v>62.70823428771359</v>
+        <v>634.5302967329759</v>
       </c>
       <c r="S27">
-        <v>0.007009653848273024</v>
+        <v>0.007474177975836632</v>
       </c>
       <c r="T27">
-        <v>0.007009653848273024</v>
+        <v>0.009537373460033246</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.23557913769274</v>
+        <v>3.410876</v>
       </c>
       <c r="H28">
-        <v>3.23557913769274</v>
+        <v>10.232628</v>
       </c>
       <c r="I28">
-        <v>0.05329649788219764</v>
+        <v>0.05475528812680208</v>
       </c>
       <c r="J28">
-        <v>0.05329649788219764</v>
+        <v>0.06794308654957848</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N28">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O28">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P28">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q28">
-        <v>182.2239307080364</v>
+        <v>195.0343376417146</v>
       </c>
       <c r="R28">
-        <v>182.2239307080364</v>
+        <v>1755.309038775432</v>
       </c>
       <c r="S28">
-        <v>0.02036936124328557</v>
+        <v>0.02067591134095724</v>
       </c>
       <c r="T28">
-        <v>0.02036936124328557</v>
+        <v>0.0263833546274596</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.23557913769274</v>
+        <v>3.410876</v>
       </c>
       <c r="H29">
-        <v>3.23557913769274</v>
+        <v>10.232628</v>
       </c>
       <c r="I29">
-        <v>0.05329649788219764</v>
+        <v>0.05475528812680208</v>
       </c>
       <c r="J29">
-        <v>0.05329649788219764</v>
+        <v>0.06794308654957848</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N29">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O29">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P29">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q29">
-        <v>176.3106537771721</v>
+        <v>189.5478355846413</v>
       </c>
       <c r="R29">
-        <v>176.3106537771721</v>
+        <v>1705.930520261771</v>
       </c>
       <c r="S29">
-        <v>0.01970836313250862</v>
+        <v>0.0200942782220117</v>
       </c>
       <c r="T29">
-        <v>0.01970836313250862</v>
+        <v>0.02564116568172652</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.23557913769274</v>
+        <v>3.410876</v>
       </c>
       <c r="H30">
-        <v>3.23557913769274</v>
+        <v>10.232628</v>
       </c>
       <c r="I30">
-        <v>0.05329649788219764</v>
+        <v>0.05475528812680208</v>
       </c>
       <c r="J30">
-        <v>0.05329649788219764</v>
+        <v>0.06794308654957848</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N30">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O30">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P30">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q30">
-        <v>16.24069287224788</v>
+        <v>18.68149519137066</v>
       </c>
       <c r="R30">
-        <v>16.24069287224788</v>
+        <v>168.1334567223359</v>
       </c>
       <c r="S30">
-        <v>0.001815417649431051</v>
+        <v>0.001980456072319261</v>
       </c>
       <c r="T30">
-        <v>0.001815417649431051</v>
+        <v>0.00252714736576568</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.23557913769274</v>
+        <v>3.410876</v>
       </c>
       <c r="H31">
-        <v>3.23557913769274</v>
+        <v>10.232628</v>
       </c>
       <c r="I31">
-        <v>0.05329649788219764</v>
+        <v>0.05475528812680208</v>
       </c>
       <c r="J31">
-        <v>0.05329649788219764</v>
+        <v>0.06794308654957848</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N31">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O31">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P31">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q31">
-        <v>28.09124561587907</v>
+        <v>29.635121550482</v>
       </c>
       <c r="R31">
-        <v>28.09124561587907</v>
+        <v>177.810729302892</v>
       </c>
       <c r="S31">
-        <v>0.003140096514768395</v>
+        <v>0.003141668042485271</v>
       </c>
       <c r="T31">
-        <v>0.003140096514768395</v>
+        <v>0.002672602615342427</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>33.8424437987103</v>
+        <v>33.8426455</v>
       </c>
       <c r="H32">
-        <v>33.8424437987103</v>
+        <v>67.68529100000001</v>
       </c>
       <c r="I32">
-        <v>0.5574531351232983</v>
+        <v>0.5432809065253976</v>
       </c>
       <c r="J32">
-        <v>0.5574531351232983</v>
+        <v>0.4494199910860052</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N32">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O32">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P32">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q32">
-        <v>117.3001525092246</v>
+        <v>129.9820544555535</v>
       </c>
       <c r="R32">
-        <v>117.3001525092246</v>
+        <v>519.928217822214</v>
       </c>
       <c r="S32">
-        <v>0.01311204939476982</v>
+        <v>0.01377961166394983</v>
       </c>
       <c r="T32">
-        <v>0.01311204939476982</v>
+        <v>0.007814835022553255</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>33.8424437987103</v>
+        <v>33.8426455</v>
       </c>
       <c r="H33">
-        <v>33.8424437987103</v>
+        <v>67.68529100000001</v>
       </c>
       <c r="I33">
-        <v>0.5574531351232983</v>
+        <v>0.5432809065253976</v>
       </c>
       <c r="J33">
-        <v>0.5574531351232983</v>
+        <v>0.4494199910860052</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N33">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O33">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P33">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q33">
-        <v>655.8949122510493</v>
+        <v>699.533032678862</v>
       </c>
       <c r="R33">
-        <v>655.8949122510493</v>
+        <v>4197.198196073173</v>
       </c>
       <c r="S33">
-        <v>0.07331726603286086</v>
+        <v>0.07415864887499479</v>
       </c>
       <c r="T33">
-        <v>0.07331726603286086</v>
+        <v>0.06308642296172863</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>33.8424437987103</v>
+        <v>33.8426455</v>
       </c>
       <c r="H34">
-        <v>33.8424437987103</v>
+        <v>67.68529100000001</v>
       </c>
       <c r="I34">
-        <v>0.5574531351232983</v>
+        <v>0.5432809065253976</v>
       </c>
       <c r="J34">
-        <v>0.5574531351232983</v>
+        <v>0.4494199910860052</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N34">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O34">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P34">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q34">
-        <v>1905.965785823542</v>
+        <v>1935.126914357442</v>
       </c>
       <c r="R34">
-        <v>1905.965785823542</v>
+        <v>11610.76148614465</v>
       </c>
       <c r="S34">
-        <v>0.2130527283542469</v>
+        <v>0.205145991206202</v>
       </c>
       <c r="T34">
-        <v>0.2130527283542469</v>
+        <v>0.1745167551791973</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>33.8424437987103</v>
+        <v>33.8426455</v>
       </c>
       <c r="H35">
-        <v>33.8424437987103</v>
+        <v>67.68529100000001</v>
       </c>
       <c r="I35">
-        <v>0.5574531351232983</v>
+        <v>0.5432809065253976</v>
       </c>
       <c r="J35">
-        <v>0.5574531351232983</v>
+        <v>0.4494199910860052</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N35">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O35">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P35">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q35">
-        <v>1844.116041563635</v>
+        <v>1880.689947386918</v>
       </c>
       <c r="R35">
-        <v>1844.116041563635</v>
+        <v>11284.13968432151</v>
       </c>
       <c r="S35">
-        <v>0.2061390382656853</v>
+        <v>0.1993750386838783</v>
       </c>
       <c r="T35">
-        <v>0.2061390382656853</v>
+        <v>0.1696074322986112</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>33.8424437987103</v>
+        <v>33.8426455</v>
       </c>
       <c r="H36">
-        <v>33.8424437987103</v>
+        <v>67.68529100000001</v>
       </c>
       <c r="I36">
-        <v>0.5574531351232983</v>
+        <v>0.5432809065253976</v>
       </c>
       <c r="J36">
-        <v>0.5574531351232983</v>
+        <v>0.4494199910860052</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N36">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O36">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P36">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q36">
-        <v>169.8690442704164</v>
+        <v>185.3574328622653</v>
       </c>
       <c r="R36">
-        <v>169.8690442704164</v>
+        <v>1112.144597173592</v>
       </c>
       <c r="S36">
-        <v>0.01898830693285655</v>
+        <v>0.01965004672812003</v>
       </c>
       <c r="T36">
-        <v>0.01898830693285655</v>
+        <v>0.01671620475714876</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>33.8424437987103</v>
+        <v>33.8426455</v>
       </c>
       <c r="H37">
-        <v>33.8424437987103</v>
+        <v>67.68529100000001</v>
       </c>
       <c r="I37">
-        <v>0.5574531351232983</v>
+        <v>0.5432809065253976</v>
       </c>
       <c r="J37">
-        <v>0.5574531351232983</v>
+        <v>0.4494199910860052</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N37">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O37">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P37">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q37">
-        <v>293.8195483820163</v>
+        <v>294.0391010937873</v>
       </c>
       <c r="R37">
-        <v>293.8195483820163</v>
+        <v>1176.156404375149</v>
       </c>
       <c r="S37">
-        <v>0.03284374614287894</v>
+        <v>0.03117156936825261</v>
       </c>
       <c r="T37">
-        <v>0.03284374614287894</v>
+        <v>0.01767834086676593</v>
       </c>
     </row>
   </sheetData>
